--- a/2.2.wsInfoFromDatabase.xlsx
+++ b/2.2.wsInfoFromDatabase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="349">
   <si>
     <t>location</t>
   </si>
@@ -1403,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N979"/>
+  <dimension ref="A1:M979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1418,11 +1418,10 @@
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="13.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -1460,13 +1459,10 @@
         <v>65</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -1504,13 +1500,10 @@
         <v>153</v>
       </c>
       <c r="M2" s="1">
-        <v>148</v>
-      </c>
-      <c r="N2" s="1">
         <v>0.16159999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
@@ -1548,13 +1541,10 @@
         <v>149</v>
       </c>
       <c r="M3" s="1">
-        <v>133</v>
-      </c>
-      <c r="N3" s="1">
         <v>0.34789999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -1592,13 +1582,10 @@
         <v>610</v>
       </c>
       <c r="M4" s="1">
-        <v>372</v>
-      </c>
-      <c r="N4" s="1">
         <v>0.39729999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -1636,13 +1623,10 @@
         <v>533</v>
       </c>
       <c r="M5" s="1">
-        <v>302</v>
-      </c>
-      <c r="N5" s="1">
         <v>0.3644</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -1680,13 +1664,10 @@
         <v>617</v>
       </c>
       <c r="M6" s="1">
-        <v>429</v>
-      </c>
-      <c r="N6" s="1">
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -1724,13 +1705,10 @@
         <v>646</v>
       </c>
       <c r="M7" s="1">
-        <v>380</v>
-      </c>
-      <c r="N7" s="1">
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -1768,13 +1746,10 @@
         <v>639</v>
       </c>
       <c r="M8" s="1">
-        <v>374</v>
-      </c>
-      <c r="N8" s="1">
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
@@ -1812,13 +1787,10 @@
         <v>477</v>
       </c>
       <c r="M9" s="1">
-        <v>386</v>
-      </c>
-      <c r="N9" s="1">
         <v>0.43290000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
@@ -1856,13 +1828,10 @@
         <v>583</v>
       </c>
       <c r="M10" s="1">
-        <v>212</v>
-      </c>
-      <c r="N10" s="1">
         <v>0.69589999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -1900,13 +1869,10 @@
         <v>1431</v>
       </c>
       <c r="M11" s="1">
-        <v>969</v>
-      </c>
-      <c r="N11" s="1">
         <v>0.1096</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
@@ -1944,13 +1910,10 @@
         <v>1533</v>
       </c>
       <c r="M12" s="1">
-        <v>885</v>
-      </c>
-      <c r="N12" s="1">
         <v>0.22470000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>96</v>
       </c>
@@ -1988,13 +1951,10 @@
         <v>550</v>
       </c>
       <c r="M13" s="1">
-        <v>287</v>
-      </c>
-      <c r="N13" s="1">
         <v>0.21920000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
@@ -2032,13 +1992,10 @@
         <v>296</v>
       </c>
       <c r="M14" s="1">
-        <v>206</v>
-      </c>
-      <c r="N14" s="1">
         <v>0.39179999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
@@ -2076,13 +2033,10 @@
         <v>917</v>
       </c>
       <c r="M15" s="1">
-        <v>462</v>
-      </c>
-      <c r="N15" s="1">
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
@@ -2120,13 +2074,10 @@
         <v>821</v>
       </c>
       <c r="M16" s="1">
-        <v>389</v>
-      </c>
-      <c r="N16" s="1">
         <v>0.51229999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -2164,13 +2115,10 @@
         <v>866</v>
       </c>
       <c r="M17" s="1">
-        <v>678</v>
-      </c>
-      <c r="N17" s="1">
         <v>0.36159999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>101</v>
       </c>
@@ -2208,13 +2156,10 @@
         <v>288</v>
       </c>
       <c r="M18" s="1">
-        <v>163</v>
-      </c>
-      <c r="N18" s="1">
         <v>0.84379999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>102</v>
       </c>
@@ -2252,13 +2197,10 @@
         <v>794</v>
       </c>
       <c r="M19" s="1">
-        <v>374</v>
-      </c>
-      <c r="N19" s="1">
         <v>0.91510000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>103</v>
       </c>
@@ -2296,13 +2238,10 @@
         <v>547</v>
       </c>
       <c r="M20" s="1">
-        <v>444</v>
-      </c>
-      <c r="N20" s="1">
         <v>0.43009999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>104</v>
       </c>
@@ -2340,13 +2279,10 @@
         <v>616</v>
       </c>
       <c r="M21" s="1">
-        <v>426</v>
-      </c>
-      <c r="N21" s="1">
         <v>0.48220000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
@@ -2384,13 +2320,10 @@
         <v>457</v>
       </c>
       <c r="M22" s="1">
-        <v>332</v>
-      </c>
-      <c r="N22" s="1">
         <v>0.4904</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>106</v>
       </c>
@@ -2428,13 +2361,10 @@
         <v>567</v>
       </c>
       <c r="M23" s="1">
-        <v>430</v>
-      </c>
-      <c r="N23" s="1">
         <v>0.52329999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>107</v>
       </c>
@@ -2472,13 +2402,10 @@
         <v>859</v>
       </c>
       <c r="M24" s="1">
-        <v>662</v>
-      </c>
-      <c r="N24" s="1">
         <v>0.44929999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -2516,13 +2443,10 @@
         <v>336</v>
       </c>
       <c r="M25" s="1">
-        <v>186</v>
-      </c>
-      <c r="N25" s="1">
         <v>0.6603</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
@@ -2560,13 +2484,10 @@
         <v>899</v>
       </c>
       <c r="M26" s="1">
-        <v>696</v>
-      </c>
-      <c r="N26" s="1">
         <v>0.48770000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -2604,13 +2525,10 @@
         <v>226</v>
       </c>
       <c r="M27" s="1">
-        <v>182</v>
-      </c>
-      <c r="N27" s="1">
         <v>0.43840000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>113</v>
       </c>
@@ -2648,13 +2566,10 @@
         <v>340</v>
       </c>
       <c r="M28" s="1">
-        <v>241</v>
-      </c>
-      <c r="N28" s="1">
         <v>0.53149999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -2692,13 +2607,10 @@
         <v>377</v>
       </c>
       <c r="M29" s="1">
-        <v>363</v>
-      </c>
-      <c r="N29" s="1">
         <v>0.13969999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>115</v>
       </c>
@@ -2736,13 +2648,10 @@
         <v>374</v>
       </c>
       <c r="M30" s="1">
-        <v>301</v>
-      </c>
-      <c r="N30" s="1">
         <v>0.46850000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
@@ -2780,13 +2689,10 @@
         <v>356</v>
       </c>
       <c r="M31" s="1">
-        <v>212</v>
-      </c>
-      <c r="N31" s="1">
         <v>0.50139999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>117</v>
       </c>
@@ -2824,13 +2730,10 @@
         <v>485</v>
       </c>
       <c r="M32" s="1">
-        <v>340</v>
-      </c>
-      <c r="N32" s="1">
         <v>0.30680000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>118</v>
       </c>
@@ -2868,13 +2771,10 @@
         <v>376</v>
       </c>
       <c r="M33" s="1">
-        <v>266</v>
-      </c>
-      <c r="N33" s="1">
         <v>0.52049999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>119</v>
       </c>
@@ -2912,13 +2812,10 @@
         <v>490</v>
       </c>
       <c r="M34" s="1">
-        <v>442</v>
-      </c>
-      <c r="N34" s="1">
         <v>0.1288</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>120</v>
       </c>
@@ -2956,13 +2853,10 @@
         <v>434</v>
       </c>
       <c r="M35" s="1">
-        <v>354</v>
-      </c>
-      <c r="N35" s="1">
         <v>0.24110000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>123</v>
       </c>
@@ -3000,13 +2894,10 @@
         <v>147</v>
       </c>
       <c r="M36" s="1">
-        <v>123</v>
-      </c>
-      <c r="N36" s="1">
         <v>0.4521</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>124</v>
       </c>
@@ -3044,13 +2935,10 @@
         <v>457</v>
       </c>
       <c r="M37" s="1">
-        <v>377</v>
-      </c>
-      <c r="N37" s="1">
         <v>0.47949999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>125</v>
       </c>
@@ -3088,13 +2976,10 @@
         <v>375</v>
       </c>
       <c r="M38" s="1">
-        <v>318</v>
-      </c>
-      <c r="N38" s="1">
         <v>0.2712</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>126</v>
       </c>
@@ -3132,13 +3017,10 @@
         <v>238</v>
       </c>
       <c r="M39" s="1">
-        <v>198</v>
-      </c>
-      <c r="N39" s="1">
         <v>0.43009999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>127</v>
       </c>
@@ -3176,13 +3058,10 @@
         <v>188</v>
       </c>
       <c r="M40" s="1">
-        <v>149</v>
-      </c>
-      <c r="N40" s="1">
         <v>0.56710000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>128</v>
       </c>
@@ -3220,13 +3099,10 @@
         <v>247</v>
       </c>
       <c r="M41" s="1">
-        <v>210</v>
-      </c>
-      <c r="N41" s="1">
         <v>0.32050000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>129</v>
       </c>
@@ -3264,13 +3140,10 @@
         <v>263</v>
       </c>
       <c r="M42" s="1">
-        <v>187</v>
-      </c>
-      <c r="N42" s="1">
         <v>0.44929999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>130</v>
       </c>
@@ -3308,13 +3181,10 @@
         <v>314</v>
       </c>
       <c r="M43" s="1">
-        <v>225</v>
-      </c>
-      <c r="N43" s="1">
         <v>0.50960000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>131</v>
       </c>
@@ -3352,13 +3222,10 @@
         <v>159</v>
       </c>
       <c r="M44" s="1">
-        <v>123</v>
-      </c>
-      <c r="N44" s="1">
         <v>0.72050000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>132</v>
       </c>
@@ -3396,13 +3263,10 @@
         <v>462</v>
       </c>
       <c r="M45" s="1">
-        <v>263</v>
-      </c>
-      <c r="N45" s="1">
         <v>0.49590000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>133</v>
       </c>
@@ -3440,13 +3304,10 @@
         <v>316</v>
       </c>
       <c r="M46" s="1">
-        <v>238</v>
-      </c>
-      <c r="N46" s="1">
         <v>0.44929999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -3484,13 +3345,10 @@
         <v>245</v>
       </c>
       <c r="M47" s="1">
-        <v>146</v>
-      </c>
-      <c r="N47" s="1">
         <v>0.53149999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>135</v>
       </c>
@@ -3528,13 +3386,10 @@
         <v>412</v>
       </c>
       <c r="M48" s="1">
-        <v>349</v>
-      </c>
-      <c r="N48" s="1">
         <v>0.1507</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>136</v>
       </c>
@@ -3572,13 +3427,10 @@
         <v>215</v>
       </c>
       <c r="M49" s="1">
-        <v>147</v>
-      </c>
-      <c r="N49" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>137</v>
       </c>
@@ -3616,13 +3468,10 @@
         <v>188</v>
       </c>
       <c r="M50" s="1">
-        <v>151</v>
-      </c>
-      <c r="N50" s="1">
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
@@ -3660,13 +3509,10 @@
         <v>489</v>
       </c>
       <c r="M51" s="1">
-        <v>429</v>
-      </c>
-      <c r="N51" s="1">
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>139</v>
       </c>
@@ -3704,13 +3550,10 @@
         <v>502</v>
       </c>
       <c r="M52" s="1">
-        <v>441</v>
-      </c>
-      <c r="N52" s="1">
         <v>0.33150000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>140</v>
       </c>
@@ -3748,13 +3591,10 @@
         <v>195</v>
       </c>
       <c r="M53" s="1">
-        <v>144</v>
-      </c>
-      <c r="N53" s="1">
         <v>0.32879999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>141</v>
       </c>
@@ -3792,13 +3632,10 @@
         <v>260</v>
       </c>
       <c r="M54" s="1">
-        <v>136</v>
-      </c>
-      <c r="N54" s="1">
         <v>0.61919999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>142</v>
       </c>
@@ -3836,13 +3673,10 @@
         <v>322</v>
       </c>
       <c r="M55" s="1">
-        <v>305</v>
-      </c>
-      <c r="N55" s="1">
         <v>0.2712</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>143</v>
       </c>
@@ -3880,13 +3714,10 @@
         <v>469</v>
       </c>
       <c r="M56" s="1">
-        <v>425</v>
-      </c>
-      <c r="N56" s="1">
         <v>0.32879999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>144</v>
       </c>
@@ -3924,13 +3755,10 @@
         <v>224</v>
       </c>
       <c r="M57" s="1">
-        <v>176</v>
-      </c>
-      <c r="N57" s="1">
         <v>0.41370000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>147</v>
       </c>
@@ -3968,13 +3796,10 @@
         <v>276</v>
       </c>
       <c r="M58" s="1">
-        <v>169</v>
-      </c>
-      <c r="N58" s="1">
         <v>0.47949999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>148</v>
       </c>
@@ -4012,13 +3837,10 @@
         <v>276</v>
       </c>
       <c r="M59" s="1">
-        <v>207</v>
-      </c>
-      <c r="N59" s="1">
         <v>0.63009999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>149</v>
       </c>
@@ -4056,13 +3878,10 @@
         <v>381</v>
       </c>
       <c r="M60" s="1">
-        <v>244</v>
-      </c>
-      <c r="N60" s="1">
         <v>0.90410000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>150</v>
       </c>
@@ -4100,13 +3919,10 @@
         <v>773</v>
       </c>
       <c r="M61" s="1">
-        <v>536</v>
-      </c>
-      <c r="N61" s="1">
         <v>0.54249999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>151</v>
       </c>
@@ -4144,13 +3960,10 @@
         <v>476</v>
       </c>
       <c r="M62" s="1">
-        <v>476</v>
-      </c>
-      <c r="N62" s="1">
         <v>7.9500000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>152</v>
       </c>
@@ -4188,13 +4001,10 @@
         <v>690</v>
       </c>
       <c r="M63" s="1">
-        <v>360</v>
-      </c>
-      <c r="N63" s="1">
         <v>0.55069999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>153</v>
       </c>
@@ -4232,13 +4042,10 @@
         <v>2128</v>
       </c>
       <c r="M64" s="1">
-        <v>1477</v>
-      </c>
-      <c r="N64" s="1">
         <v>0.69320000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>154</v>
       </c>
@@ -4276,13 +4083,10 @@
         <v>2699</v>
       </c>
       <c r="M65" s="1">
-        <v>1265</v>
-      </c>
-      <c r="N65" s="1">
         <v>0.71509999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>155</v>
       </c>
@@ -4320,13 +4124,10 @@
         <v>387</v>
       </c>
       <c r="M66" s="1">
-        <v>328</v>
-      </c>
-      <c r="N66" s="1">
         <v>0.52049999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>156</v>
       </c>
@@ -4364,13 +4165,10 @@
         <v>318</v>
       </c>
       <c r="M67" s="1">
-        <v>246</v>
-      </c>
-      <c r="N67" s="1">
         <v>0.15890000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>157</v>
       </c>
@@ -4408,13 +4206,10 @@
         <v>395</v>
       </c>
       <c r="M68" s="1">
-        <v>325</v>
-      </c>
-      <c r="N68" s="1">
         <v>0.54520000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>158</v>
       </c>
@@ -4452,13 +4247,10 @@
         <v>179</v>
       </c>
       <c r="M69" s="1">
-        <v>94</v>
-      </c>
-      <c r="N69" s="1">
         <v>0.47949999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>159</v>
       </c>
@@ -4496,13 +4288,10 @@
         <v>502</v>
       </c>
       <c r="M70" s="1">
-        <v>428</v>
-      </c>
-      <c r="N70" s="1">
         <v>0.58630000000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>160</v>
       </c>
@@ -4540,13 +4329,10 @@
         <v>352</v>
       </c>
       <c r="M71" s="1">
-        <v>188</v>
-      </c>
-      <c r="N71" s="1">
         <v>0.67949999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>161</v>
       </c>
@@ -4584,13 +4370,10 @@
         <v>505</v>
       </c>
       <c r="M72" s="1">
-        <v>274</v>
-      </c>
-      <c r="N72" s="1">
         <v>0.57809999999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>162</v>
       </c>
@@ -4628,13 +4411,10 @@
         <v>1215</v>
       </c>
       <c r="M73" s="1">
-        <v>860</v>
-      </c>
-      <c r="N73" s="1">
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>163</v>
       </c>
@@ -4672,13 +4452,10 @@
         <v>1650</v>
       </c>
       <c r="M74" s="1">
-        <v>729</v>
-      </c>
-      <c r="N74" s="1">
         <v>0.68220000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
@@ -4716,13 +4493,10 @@
         <v>321</v>
       </c>
       <c r="M75" s="1">
-        <v>174</v>
-      </c>
-      <c r="N75" s="1">
         <v>0.82469999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>165</v>
       </c>
@@ -4760,13 +4534,10 @@
         <v>364</v>
       </c>
       <c r="M76" s="1">
-        <v>308</v>
-      </c>
-      <c r="N76" s="1">
         <v>0.21640000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>166</v>
       </c>
@@ -4804,13 +4575,10 @@
         <v>368</v>
       </c>
       <c r="M77" s="1">
-        <v>308</v>
-      </c>
-      <c r="N77" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>167</v>
       </c>
@@ -4848,13 +4616,10 @@
         <v>428</v>
       </c>
       <c r="M78" s="1">
-        <v>342</v>
-      </c>
-      <c r="N78" s="1">
         <v>0.39179999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
@@ -4892,13 +4657,10 @@
         <v>342</v>
       </c>
       <c r="M79" s="1">
-        <v>229</v>
-      </c>
-      <c r="N79" s="1">
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>171</v>
       </c>
@@ -4936,13 +4698,10 @@
         <v>581</v>
       </c>
       <c r="M80" s="1">
-        <v>392</v>
-      </c>
-      <c r="N80" s="1">
         <v>0.29320000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>174</v>
       </c>
@@ -4980,13 +4739,10 @@
         <v>392</v>
       </c>
       <c r="M81" s="1">
-        <v>322</v>
-      </c>
-      <c r="N81" s="1">
         <v>0.2712</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>175</v>
       </c>
@@ -5024,13 +4780,10 @@
         <v>494</v>
       </c>
       <c r="M82" s="1">
-        <v>257</v>
-      </c>
-      <c r="N82" s="1">
         <v>0.55069999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>176</v>
       </c>
@@ -5068,13 +4821,10 @@
         <v>391</v>
       </c>
       <c r="M83" s="1">
-        <v>286</v>
-      </c>
-      <c r="N83" s="1">
         <v>0.4521</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>177</v>
       </c>
@@ -5112,13 +4862,10 @@
         <v>265</v>
       </c>
       <c r="M84" s="1">
-        <v>180</v>
-      </c>
-      <c r="N84" s="1">
         <v>0.51780000000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>178</v>
       </c>
@@ -5156,13 +4903,10 @@
         <v>286</v>
       </c>
       <c r="M85" s="1">
-        <v>230</v>
-      </c>
-      <c r="N85" s="1">
         <v>0.52049999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>179</v>
       </c>
@@ -5200,13 +4944,10 @@
         <v>462</v>
       </c>
       <c r="M86" s="1">
-        <v>221</v>
-      </c>
-      <c r="N86" s="1">
         <v>0.63009999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>180</v>
       </c>
@@ -5244,13 +4985,10 @@
         <v>411</v>
       </c>
       <c r="M87" s="1">
-        <v>316</v>
-      </c>
-      <c r="N87" s="1">
         <v>0.36990000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>181</v>
       </c>
@@ -5288,13 +5026,10 @@
         <v>313</v>
       </c>
       <c r="M88" s="1">
-        <v>245</v>
-      </c>
-      <c r="N88" s="1">
         <v>0.56989999999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>182</v>
       </c>
@@ -5332,13 +5067,10 @@
         <v>357</v>
       </c>
       <c r="M89" s="1">
-        <v>266</v>
-      </c>
-      <c r="N89" s="1">
         <v>0.41920000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -5376,13 +5108,10 @@
         <v>465</v>
       </c>
       <c r="M90" s="1">
-        <v>325</v>
-      </c>
-      <c r="N90" s="1">
         <v>0.45479999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>184</v>
       </c>
@@ -5420,13 +5149,10 @@
         <v>588</v>
       </c>
       <c r="M91" s="1">
-        <v>393</v>
-      </c>
-      <c r="N91" s="1">
         <v>0.62190000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>185</v>
       </c>
@@ -5464,13 +5190,10 @@
         <v>358</v>
       </c>
       <c r="M92" s="1">
-        <v>256</v>
-      </c>
-      <c r="N92" s="1">
         <v>0.70960000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>186</v>
       </c>
@@ -5508,13 +5231,10 @@
         <v>252</v>
       </c>
       <c r="M93" s="1">
-        <v>184</v>
-      </c>
-      <c r="N93" s="1">
         <v>0.30959999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>187</v>
       </c>
@@ -5552,13 +5272,10 @@
         <v>531</v>
       </c>
       <c r="M94" s="1">
-        <v>427</v>
-      </c>
-      <c r="N94" s="1">
         <v>0.24110000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -5596,13 +5313,10 @@
         <v>488</v>
       </c>
       <c r="M95" s="1">
-        <v>418</v>
-      </c>
-      <c r="N95" s="1">
         <v>4.6600000000000003E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>189</v>
       </c>
@@ -5640,13 +5354,10 @@
         <v>556</v>
       </c>
       <c r="M96" s="1">
-        <v>219</v>
-      </c>
-      <c r="N96" s="1">
         <v>0.63560000000000005</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>190</v>
       </c>
@@ -5684,13 +5395,10 @@
         <v>301</v>
       </c>
       <c r="M97" s="1">
-        <v>220</v>
-      </c>
-      <c r="N97" s="1">
         <v>0.43009999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>192</v>
       </c>
@@ -5728,13 +5436,10 @@
         <v>568</v>
       </c>
       <c r="M98" s="1">
-        <v>481</v>
-      </c>
-      <c r="N98" s="1">
         <v>0.38080000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>193</v>
       </c>
@@ -5772,13 +5477,10 @@
         <v>615</v>
       </c>
       <c r="M99" s="1">
-        <v>280</v>
-      </c>
-      <c r="N99" s="1">
         <v>0.45750000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>194</v>
       </c>
@@ -5816,13 +5518,10 @@
         <v>861</v>
       </c>
       <c r="M100" s="1">
-        <v>568</v>
-      </c>
-      <c r="N100" s="1">
         <v>0.189</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>195</v>
       </c>
@@ -5860,13 +5559,10 @@
         <v>440</v>
       </c>
       <c r="M101" s="1">
-        <v>318</v>
-      </c>
-      <c r="N101" s="1">
         <v>0.29039999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>196</v>
       </c>
@@ -5904,13 +5600,10 @@
         <v>826</v>
       </c>
       <c r="M102" s="1">
-        <v>556</v>
-      </c>
-      <c r="N102" s="1">
         <v>0.29859999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>197</v>
       </c>
@@ -5948,13 +5641,10 @@
         <v>1033</v>
       </c>
       <c r="M103" s="1">
-        <v>538</v>
-      </c>
-      <c r="N103" s="1">
         <v>0.58079999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>198</v>
       </c>
@@ -5992,13 +5682,10 @@
         <v>471</v>
       </c>
       <c r="M104" s="1">
-        <v>318</v>
-      </c>
-      <c r="N104" s="1">
         <v>0.39179999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>199</v>
       </c>
@@ -6036,13 +5723,10 @@
         <v>886</v>
       </c>
       <c r="M105" s="1">
-        <v>680</v>
-      </c>
-      <c r="N105" s="1">
         <v>0.38629999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>200</v>
       </c>
@@ -6080,13 +5764,10 @@
         <v>342</v>
       </c>
       <c r="M106" s="1">
-        <v>202</v>
-      </c>
-      <c r="N106" s="1">
         <v>0.48770000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>201</v>
       </c>
@@ -6124,13 +5805,10 @@
         <v>781</v>
       </c>
       <c r="M107" s="1">
-        <v>579</v>
-      </c>
-      <c r="N107" s="1">
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>202</v>
       </c>
@@ -6168,13 +5846,10 @@
         <v>614</v>
       </c>
       <c r="M108" s="1">
-        <v>524</v>
-      </c>
-      <c r="N108" s="1">
         <v>0.50409999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>203</v>
       </c>
@@ -6212,13 +5887,10 @@
         <v>906</v>
       </c>
       <c r="M109" s="1">
-        <v>560</v>
-      </c>
-      <c r="N109" s="1">
         <v>0.2767</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>204</v>
       </c>
@@ -6256,13 +5928,10 @@
         <v>432</v>
       </c>
       <c r="M110" s="1">
-        <v>362</v>
-      </c>
-      <c r="N110" s="1">
         <v>0.32879999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>205</v>
       </c>
@@ -6300,13 +5969,10 @@
         <v>594</v>
       </c>
       <c r="M111" s="1">
-        <v>417</v>
-      </c>
-      <c r="N111" s="1">
         <v>0.53149999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>206</v>
       </c>
@@ -6344,13 +6010,10 @@
         <v>665</v>
       </c>
       <c r="M112" s="1">
-        <v>474</v>
-      </c>
-      <c r="N112" s="1">
         <v>0.4274</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>207</v>
       </c>
@@ -6388,13 +6051,10 @@
         <v>205</v>
       </c>
       <c r="M113" s="1">
-        <v>146</v>
-      </c>
-      <c r="N113" s="1">
         <v>0.24110000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>208</v>
       </c>
@@ -6432,13 +6092,10 @@
         <v>465</v>
       </c>
       <c r="M114" s="1">
-        <v>312</v>
-      </c>
-      <c r="N114" s="1">
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>209</v>
       </c>
@@ -6476,13 +6133,10 @@
         <v>624</v>
       </c>
       <c r="M115" s="1">
-        <v>491</v>
-      </c>
-      <c r="N115" s="1">
         <v>0.39729999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>210</v>
       </c>
@@ -6520,13 +6174,10 @@
         <v>395</v>
       </c>
       <c r="M116" s="1">
-        <v>204</v>
-      </c>
-      <c r="N116" s="1">
         <v>0.79730000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>211</v>
       </c>
@@ -6564,13 +6215,10 @@
         <v>456</v>
       </c>
       <c r="M117" s="1">
-        <v>245</v>
-      </c>
-      <c r="N117" s="1">
         <v>0.68769999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>212</v>
       </c>
@@ -6608,13 +6256,10 @@
         <v>252</v>
       </c>
       <c r="M118" s="1">
-        <v>197</v>
-      </c>
-      <c r="N118" s="1">
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>213</v>
       </c>
@@ -6652,13 +6297,10 @@
         <v>236</v>
       </c>
       <c r="M119" s="1">
-        <v>195</v>
-      </c>
-      <c r="N119" s="1">
         <v>0.61919999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>214</v>
       </c>
@@ -6696,13 +6338,10 @@
         <v>155</v>
       </c>
       <c r="M120" s="1">
-        <v>124</v>
-      </c>
-      <c r="N120" s="1">
         <v>0.45479999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>217</v>
       </c>
@@ -6740,13 +6379,10 @@
         <v>179</v>
       </c>
       <c r="M121" s="1">
-        <v>156</v>
-      </c>
-      <c r="N121" s="1">
         <v>0.48770000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>218</v>
       </c>
@@ -6784,13 +6420,10 @@
         <v>300</v>
       </c>
       <c r="M122" s="1">
-        <v>256</v>
-      </c>
-      <c r="N122" s="1">
         <v>0.47949999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>219</v>
       </c>
@@ -6828,13 +6461,10 @@
         <v>368</v>
       </c>
       <c r="M123" s="1">
-        <v>284</v>
-      </c>
-      <c r="N123" s="1">
         <v>0.49320000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>220</v>
       </c>
@@ -6872,13 +6502,10 @@
         <v>161</v>
       </c>
       <c r="M124" s="1">
-        <v>128</v>
-      </c>
-      <c r="N124" s="1">
         <v>0.36159999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>221</v>
       </c>
@@ -6916,13 +6543,10 @@
         <v>526</v>
       </c>
       <c r="M125" s="1">
-        <v>337</v>
-      </c>
-      <c r="N125" s="1">
         <v>0.4219</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>222</v>
       </c>
@@ -6960,13 +6584,10 @@
         <v>170</v>
       </c>
       <c r="M126" s="1">
-        <v>139</v>
-      </c>
-      <c r="N126" s="1">
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>223</v>
       </c>
@@ -7004,13 +6625,10 @@
         <v>288</v>
       </c>
       <c r="M127" s="1">
-        <v>240</v>
-      </c>
-      <c r="N127" s="1">
         <v>0.36990000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>224</v>
       </c>
@@ -7048,13 +6666,10 @@
         <v>310</v>
       </c>
       <c r="M128" s="1">
-        <v>249</v>
-      </c>
-      <c r="N128" s="1">
         <v>0.44109999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>225</v>
       </c>
@@ -7092,13 +6707,10 @@
         <v>156</v>
       </c>
       <c r="M129" s="1">
-        <v>107</v>
-      </c>
-      <c r="N129" s="1">
         <v>0.47949999999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>226</v>
       </c>
@@ -7136,13 +6748,10 @@
         <v>205</v>
       </c>
       <c r="M130" s="1">
-        <v>147</v>
-      </c>
-      <c r="N130" s="1">
         <v>0.41370000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>227</v>
       </c>
@@ -7180,13 +6789,10 @@
         <v>333</v>
       </c>
       <c r="M131" s="1">
-        <v>246</v>
-      </c>
-      <c r="N131" s="1">
         <v>0.44379999999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>228</v>
       </c>
@@ -7224,13 +6830,10 @@
         <v>310</v>
       </c>
       <c r="M132" s="1">
-        <v>169</v>
-      </c>
-      <c r="N132" s="1">
         <v>0.61919999999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>229</v>
       </c>
@@ -7268,13 +6871,10 @@
         <v>280</v>
       </c>
       <c r="M133" s="1">
-        <v>174</v>
-      </c>
-      <c r="N133" s="1">
         <v>0.54790000000000005</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>232</v>
       </c>
@@ -7312,13 +6912,10 @@
         <v>277</v>
       </c>
       <c r="M134" s="1">
-        <v>203</v>
-      </c>
-      <c r="N134" s="1">
         <v>0.2712</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>233</v>
       </c>
@@ -7356,13 +6953,10 @@
         <v>384</v>
       </c>
       <c r="M135" s="1">
-        <v>240</v>
-      </c>
-      <c r="N135" s="1">
         <v>0.76160000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>234</v>
       </c>
@@ -7400,13 +6994,10 @@
         <v>629</v>
       </c>
       <c r="M136" s="1">
-        <v>389</v>
-      </c>
-      <c r="N136" s="1">
         <v>0.51229999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>235</v>
       </c>
@@ -7444,13 +7035,10 @@
         <v>418</v>
       </c>
       <c r="M137" s="1">
-        <v>312</v>
-      </c>
-      <c r="N137" s="1">
         <v>0.60819999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>236</v>
       </c>
@@ -7488,13 +7076,10 @@
         <v>235</v>
       </c>
       <c r="M138" s="1">
-        <v>111</v>
-      </c>
-      <c r="N138" s="1">
         <v>0.61099999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>237</v>
       </c>
@@ -7532,13 +7117,10 @@
         <v>200</v>
       </c>
       <c r="M139" s="1">
-        <v>169</v>
-      </c>
-      <c r="N139" s="1">
         <v>0.30680000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>238</v>
       </c>
@@ -7576,13 +7158,10 @@
         <v>267</v>
       </c>
       <c r="M140" s="1">
-        <v>201</v>
-      </c>
-      <c r="N140" s="1">
         <v>0.52329999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>239</v>
       </c>
@@ -7620,13 +7199,10 @@
         <v>305</v>
       </c>
       <c r="M141" s="1">
-        <v>242</v>
-      </c>
-      <c r="N141" s="1">
         <v>0.48220000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>240</v>
       </c>
@@ -7664,13 +7240,10 @@
         <v>192</v>
       </c>
       <c r="M142" s="1">
-        <v>158</v>
-      </c>
-      <c r="N142" s="1">
         <v>0.22189999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>241</v>
       </c>
@@ -7708,13 +7281,10 @@
         <v>305</v>
       </c>
       <c r="M143" s="1">
-        <v>246</v>
-      </c>
-      <c r="N143" s="1">
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>242</v>
       </c>
@@ -7752,13 +7322,10 @@
         <v>288</v>
       </c>
       <c r="M144" s="1">
-        <v>207</v>
-      </c>
-      <c r="N144" s="1">
         <v>0.41639999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>243</v>
       </c>
@@ -7796,13 +7363,10 @@
         <v>360</v>
       </c>
       <c r="M145" s="1">
-        <v>224</v>
-      </c>
-      <c r="N145" s="1">
         <v>0.4849</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>244</v>
       </c>
@@ -7840,13 +7404,10 @@
         <v>177</v>
       </c>
       <c r="M146" s="1">
-        <v>139</v>
-      </c>
-      <c r="N146" s="1">
         <v>0.55069999999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>245</v>
       </c>
@@ -7884,13 +7445,10 @@
         <v>844</v>
       </c>
       <c r="M147" s="1">
-        <v>325</v>
-      </c>
-      <c r="N147" s="1">
         <v>0.81640000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>246</v>
       </c>
@@ -7928,13 +7486,10 @@
         <v>319</v>
       </c>
       <c r="M148" s="1">
-        <v>283</v>
-      </c>
-      <c r="N148" s="1">
         <v>0.29320000000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>247</v>
       </c>
@@ -7972,13 +7527,10 @@
         <v>300</v>
       </c>
       <c r="M149" s="1">
-        <v>192</v>
-      </c>
-      <c r="N149" s="1">
         <v>0.50139999999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>248</v>
       </c>
@@ -8016,13 +7568,10 @@
         <v>376</v>
       </c>
       <c r="M150" s="1">
-        <v>307</v>
-      </c>
-      <c r="N150" s="1">
         <v>0.3014</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>249</v>
       </c>
@@ -8060,13 +7609,10 @@
         <v>220</v>
       </c>
       <c r="M151" s="1">
-        <v>180</v>
-      </c>
-      <c r="N151" s="1">
         <v>0.34250000000000003</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>252</v>
       </c>
@@ -8104,13 +7650,10 @@
         <v>312</v>
       </c>
       <c r="M152" s="1">
-        <v>260</v>
-      </c>
-      <c r="N152" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>253</v>
       </c>
@@ -8148,13 +7691,10 @@
         <v>287</v>
       </c>
       <c r="M153" s="1">
-        <v>232</v>
-      </c>
-      <c r="N153" s="1">
         <v>0.49859999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>254</v>
       </c>
@@ -8192,13 +7732,10 @@
         <v>331</v>
       </c>
       <c r="M154" s="1">
-        <v>292</v>
-      </c>
-      <c r="N154" s="1">
         <v>0.63839999999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>255</v>
       </c>
@@ -8236,13 +7773,10 @@
         <v>195</v>
       </c>
       <c r="M155" s="1">
-        <v>169</v>
-      </c>
-      <c r="N155" s="1">
         <v>0.29039999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>256</v>
       </c>
@@ -8280,13 +7814,10 @@
         <v>284</v>
       </c>
       <c r="M156" s="1">
-        <v>189</v>
-      </c>
-      <c r="N156" s="1">
         <v>0.53969999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>257</v>
       </c>
@@ -8324,13 +7855,10 @@
         <v>320</v>
       </c>
       <c r="M157" s="1">
-        <v>289</v>
-      </c>
-      <c r="N157" s="1">
         <v>0.27950000000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>258</v>
       </c>
@@ -8368,13 +7896,10 @@
         <v>430</v>
       </c>
       <c r="M158" s="1">
-        <v>239</v>
-      </c>
-      <c r="N158" s="1">
         <v>0.67669999999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>259</v>
       </c>
@@ -8412,13 +7937,10 @@
         <v>347</v>
       </c>
       <c r="M159" s="1">
-        <v>278</v>
-      </c>
-      <c r="N159" s="1">
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>260</v>
       </c>
@@ -8456,13 +7978,10 @@
         <v>267</v>
       </c>
       <c r="M160" s="1">
-        <v>183</v>
-      </c>
-      <c r="N160" s="1">
         <v>0.57530000000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>261</v>
       </c>
@@ -8500,13 +8019,10 @@
         <v>323</v>
       </c>
       <c r="M161" s="1">
-        <v>237</v>
-      </c>
-      <c r="N161" s="1">
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>262</v>
       </c>
@@ -8544,13 +8060,10 @@
         <v>406</v>
       </c>
       <c r="M162" s="1">
-        <v>297</v>
-      </c>
-      <c r="N162" s="1">
         <v>0.4521</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>263</v>
       </c>
@@ -8588,13 +8101,10 @@
         <v>447</v>
       </c>
       <c r="M163" s="1">
-        <v>360</v>
-      </c>
-      <c r="N163" s="1">
         <v>0.53149999999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>264</v>
       </c>
@@ -8632,13 +8142,10 @@
         <v>411</v>
       </c>
       <c r="M164" s="1">
-        <v>209</v>
-      </c>
-      <c r="N164" s="1">
         <v>0.53969999999999996</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>265</v>
       </c>
@@ -8676,13 +8183,10 @@
         <v>438</v>
       </c>
       <c r="M165" s="1">
-        <v>265</v>
-      </c>
-      <c r="N165" s="1">
         <v>0.4027</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>266</v>
       </c>
@@ -8720,13 +8224,10 @@
         <v>504</v>
       </c>
       <c r="M166" s="1">
-        <v>435</v>
-      </c>
-      <c r="N166" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>267</v>
       </c>
@@ -8764,13 +8265,10 @@
         <v>755</v>
       </c>
       <c r="M167" s="1">
-        <v>487</v>
-      </c>
-      <c r="N167" s="1">
         <v>0.43009999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>268</v>
       </c>
@@ -8808,13 +8306,10 @@
         <v>431</v>
       </c>
       <c r="M168" s="1">
-        <v>231</v>
-      </c>
-      <c r="N168" s="1">
         <v>0.4027</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>269</v>
       </c>
@@ -8852,13 +8347,10 @@
         <v>240</v>
       </c>
       <c r="M169" s="1">
-        <v>199</v>
-      </c>
-      <c r="N169" s="1">
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>270</v>
       </c>
@@ -8896,13 +8388,10 @@
         <v>578</v>
       </c>
       <c r="M170" s="1">
-        <v>490</v>
-      </c>
-      <c r="N170" s="1">
         <v>0.2301</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>271</v>
       </c>
@@ -8940,13 +8429,10 @@
         <v>810</v>
       </c>
       <c r="M171" s="1">
-        <v>538</v>
-      </c>
-      <c r="N171" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>272</v>
       </c>
@@ -8984,13 +8470,10 @@
         <v>390</v>
       </c>
       <c r="M172" s="1">
-        <v>288</v>
-      </c>
-      <c r="N172" s="1">
         <v>0.2329</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>273</v>
       </c>
@@ -9028,13 +8511,10 @@
         <v>648</v>
       </c>
       <c r="M173" s="1">
-        <v>415</v>
-      </c>
-      <c r="N173" s="1">
         <v>0.40820000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>274</v>
       </c>
@@ -9072,13 +8552,10 @@
         <v>600</v>
       </c>
       <c r="M174" s="1">
-        <v>387</v>
-      </c>
-      <c r="N174" s="1">
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>275</v>
       </c>
@@ -9116,13 +8593,10 @@
         <v>829</v>
       </c>
       <c r="M175" s="1">
-        <v>575</v>
-      </c>
-      <c r="N175" s="1">
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>276</v>
       </c>
@@ -9160,13 +8634,10 @@
         <v>432</v>
       </c>
       <c r="M176" s="1">
-        <v>228</v>
-      </c>
-      <c r="N176" s="1">
         <v>0.52049999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>277</v>
       </c>
@@ -9204,13 +8675,10 @@
         <v>512</v>
       </c>
       <c r="M177" s="1">
-        <v>337</v>
-      </c>
-      <c r="N177" s="1">
         <v>0.46300000000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>280</v>
       </c>
@@ -9248,13 +8716,10 @@
         <v>480</v>
       </c>
       <c r="M178" s="1">
-        <v>154</v>
-      </c>
-      <c r="N178" s="1">
         <v>0.67949999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>281</v>
       </c>
@@ -9292,13 +8757,10 @@
         <v>853</v>
       </c>
       <c r="M179" s="1">
-        <v>432</v>
-      </c>
-      <c r="N179" s="1">
         <v>0.68220000000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>282</v>
       </c>
@@ -9336,13 +8798,10 @@
         <v>188</v>
       </c>
       <c r="M180" s="1">
-        <v>104</v>
-      </c>
-      <c r="N180" s="1">
         <v>0.56989999999999996</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>283</v>
       </c>
@@ -9380,13 +8839,10 @@
         <v>807</v>
       </c>
       <c r="M181" s="1">
-        <v>200</v>
-      </c>
-      <c r="N181" s="1">
         <v>0.86850000000000005</v>
       </c>
     </row>
-    <row r="182" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>284</v>
       </c>
@@ -9424,13 +8880,10 @@
         <v>770</v>
       </c>
       <c r="M182" s="1">
-        <v>428</v>
-      </c>
-      <c r="N182" s="1">
         <v>0.52329999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>285</v>
       </c>
@@ -9468,13 +8921,10 @@
         <v>890</v>
       </c>
       <c r="M183" s="1">
-        <v>576</v>
-      </c>
-      <c r="N183" s="1">
         <v>0.46029999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>286</v>
       </c>
@@ -9512,13 +8962,10 @@
         <v>681</v>
       </c>
       <c r="M184" s="1">
-        <v>560</v>
-      </c>
-      <c r="N184" s="1">
         <v>0.35339999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>287</v>
       </c>
@@ -9556,13 +9003,10 @@
         <v>640</v>
       </c>
       <c r="M185" s="1">
-        <v>288</v>
-      </c>
-      <c r="N185" s="1">
         <v>0.49859999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>288</v>
       </c>
@@ -9600,13 +9044,10 @@
         <v>612</v>
       </c>
       <c r="M186" s="1">
-        <v>373</v>
-      </c>
-      <c r="N186" s="1">
         <v>0.5151</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>289</v>
       </c>
@@ -9644,13 +9085,10 @@
         <v>1296</v>
       </c>
       <c r="M187" s="1">
-        <v>420</v>
-      </c>
-      <c r="N187" s="1">
         <v>0.87119999999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>290</v>
       </c>
@@ -9688,13 +9126,10 @@
         <v>1032</v>
       </c>
       <c r="M188" s="1">
-        <v>593</v>
-      </c>
-      <c r="N188" s="1">
         <v>0.50680000000000003</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>291</v>
       </c>
@@ -9732,13 +9167,10 @@
         <v>624</v>
       </c>
       <c r="M189" s="1">
-        <v>436</v>
-      </c>
-      <c r="N189" s="1">
         <v>0.28220000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>292</v>
       </c>
@@ -9776,13 +9208,10 @@
         <v>654</v>
       </c>
       <c r="M190" s="1">
-        <v>426</v>
-      </c>
-      <c r="N190" s="1">
         <v>0.54249999999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>293</v>
       </c>
@@ -9820,13 +9249,10 @@
         <v>148</v>
       </c>
       <c r="M191" s="1">
-        <v>142</v>
-      </c>
-      <c r="N191" s="1">
         <v>8.2199999999999995E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>294</v>
       </c>
@@ -9864,13 +9290,10 @@
         <v>1040</v>
       </c>
       <c r="M192" s="1">
-        <v>621</v>
-      </c>
-      <c r="N192" s="1">
         <v>0.34789999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>295</v>
       </c>
@@ -9908,13 +9331,10 @@
         <v>888</v>
       </c>
       <c r="M193" s="1">
-        <v>535</v>
-      </c>
-      <c r="N193" s="1">
         <v>0.47670000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>296</v>
       </c>
@@ -9952,13 +9372,10 @@
         <v>808</v>
       </c>
       <c r="M194" s="1">
-        <v>196</v>
-      </c>
-      <c r="N194" s="1">
         <v>0.77810000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>297</v>
       </c>
@@ -9996,13 +9413,10 @@
         <v>483</v>
       </c>
       <c r="M195" s="1">
-        <v>294</v>
-      </c>
-      <c r="N195" s="1">
         <v>0.39729999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>298</v>
       </c>
@@ -10040,13 +9454,10 @@
         <v>868</v>
       </c>
       <c r="M196" s="1">
-        <v>471</v>
-      </c>
-      <c r="N196" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>299</v>
       </c>
@@ -10084,13 +9495,10 @@
         <v>752</v>
       </c>
       <c r="M197" s="1">
-        <v>620</v>
-      </c>
-      <c r="N197" s="1">
         <v>0.29320000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>300</v>
       </c>
@@ -10128,13 +9536,10 @@
         <v>469</v>
       </c>
       <c r="M198" s="1">
-        <v>235</v>
-      </c>
-      <c r="N198" s="1">
         <v>0.6411</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>301</v>
       </c>
@@ -10172,13 +9577,10 @@
         <v>361</v>
       </c>
       <c r="M199" s="1">
-        <v>284</v>
-      </c>
-      <c r="N199" s="1">
         <v>0.50409999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>302</v>
       </c>
@@ -10216,13 +9618,10 @@
         <v>799</v>
       </c>
       <c r="M200" s="1">
-        <v>355</v>
-      </c>
-      <c r="N200" s="1">
         <v>0.4027</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>303</v>
       </c>
@@ -10260,13 +9659,10 @@
         <v>724</v>
       </c>
       <c r="M201" s="1">
-        <v>436</v>
-      </c>
-      <c r="N201" s="1">
         <v>0.50680000000000003</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>304</v>
       </c>
@@ -10304,13 +9700,10 @@
         <v>296</v>
       </c>
       <c r="M202" s="1">
-        <v>141</v>
-      </c>
-      <c r="N202" s="1">
         <v>0.54790000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>305</v>
       </c>
@@ -10348,13 +9741,10 @@
         <v>406</v>
       </c>
       <c r="M203" s="1">
-        <v>250</v>
-      </c>
-      <c r="N203" s="1">
         <v>0.36990000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>306</v>
       </c>
@@ -10392,13 +9782,10 @@
         <v>534</v>
       </c>
       <c r="M204" s="1">
-        <v>443</v>
-      </c>
-      <c r="N204" s="1">
         <v>0.2356</v>
       </c>
     </row>
-    <row r="205" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>308</v>
       </c>
@@ -10436,13 +9823,10 @@
         <v>706</v>
       </c>
       <c r="M205" s="1">
-        <v>343</v>
-      </c>
-      <c r="N205" s="1">
         <v>0.58079999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>309</v>
       </c>
@@ -10480,13 +9864,10 @@
         <v>781</v>
       </c>
       <c r="M206" s="1">
-        <v>739</v>
-      </c>
-      <c r="N206" s="1">
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>310</v>
       </c>
@@ -10524,13 +9905,10 @@
         <v>469</v>
       </c>
       <c r="M207" s="1">
-        <v>270</v>
-      </c>
-      <c r="N207" s="1">
         <v>0.46850000000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>311</v>
       </c>
@@ -10568,13 +9946,10 @@
         <v>543</v>
       </c>
       <c r="M208" s="1">
-        <v>424</v>
-      </c>
-      <c r="N208" s="1">
         <v>0.34250000000000003</v>
       </c>
     </row>
-    <row r="209" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>312</v>
       </c>
@@ -10612,13 +9987,10 @@
         <v>1261</v>
       </c>
       <c r="M209" s="1">
-        <v>980</v>
-      </c>
-      <c r="N209" s="1">
         <v>0.2712</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>313</v>
       </c>
@@ -10656,13 +10028,10 @@
         <v>1354</v>
       </c>
       <c r="M210" s="1">
-        <v>994</v>
-      </c>
-      <c r="N210" s="1">
         <v>0.43009999999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>314</v>
       </c>
@@ -10700,13 +10069,10 @@
         <v>483</v>
       </c>
       <c r="M211" s="1">
-        <v>284</v>
-      </c>
-      <c r="N211" s="1">
         <v>0.60550000000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>315</v>
       </c>
@@ -10744,13 +10110,10 @@
         <v>515</v>
       </c>
       <c r="M212" s="1">
-        <v>236</v>
-      </c>
-      <c r="N212" s="1">
         <v>0.56710000000000005</v>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>316</v>
       </c>
@@ -10788,13 +10151,10 @@
         <v>335</v>
       </c>
       <c r="M213" s="1">
-        <v>188</v>
-      </c>
-      <c r="N213" s="1">
         <v>0.61919999999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>317</v>
       </c>
@@ -10832,13 +10192,10 @@
         <v>544</v>
       </c>
       <c r="M214" s="1">
-        <v>329</v>
-      </c>
-      <c r="N214" s="1">
         <v>0.70409999999999995</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>318</v>
       </c>
@@ -10876,13 +10233,10 @@
         <v>1027</v>
       </c>
       <c r="M215" s="1">
-        <v>549</v>
-      </c>
-      <c r="N215" s="1">
         <v>0.44379999999999997</v>
       </c>
     </row>
-    <row r="216" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>319</v>
       </c>
@@ -10920,13 +10274,10 @@
         <v>969</v>
       </c>
       <c r="M216" s="1">
-        <v>652</v>
-      </c>
-      <c r="N216" s="1">
         <v>0.4466</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>320</v>
       </c>
@@ -10964,13 +10315,10 @@
         <v>532</v>
       </c>
       <c r="M217" s="1">
-        <v>378</v>
-      </c>
-      <c r="N217" s="1">
         <v>0.4219</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>321</v>
       </c>
@@ -11008,13 +10356,10 @@
         <v>673</v>
       </c>
       <c r="M218" s="1">
-        <v>255</v>
-      </c>
-      <c r="N218" s="1">
         <v>0.59179999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>322</v>
       </c>
@@ -11052,13 +10397,10 @@
         <v>711</v>
       </c>
       <c r="M219" s="1">
-        <v>441</v>
-      </c>
-      <c r="N219" s="1">
         <v>0.5726</v>
       </c>
     </row>
-    <row r="220" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>323</v>
       </c>
@@ -11096,13 +10438,10 @@
         <v>460</v>
       </c>
       <c r="M220" s="1">
-        <v>356</v>
-      </c>
-      <c r="N220" s="1">
         <v>0.42470000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>324</v>
       </c>
@@ -11140,13 +10479,10 @@
         <v>507</v>
       </c>
       <c r="M221" s="1">
-        <v>437</v>
-      </c>
-      <c r="N221" s="1">
         <v>7.9500000000000001E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>325</v>
       </c>
@@ -11184,13 +10520,10 @@
         <v>543</v>
       </c>
       <c r="M222" s="1">
-        <v>461</v>
-      </c>
-      <c r="N222" s="1">
         <v>0.31780000000000003</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>326</v>
       </c>
@@ -11228,13 +10561,10 @@
         <v>829</v>
       </c>
       <c r="M223" s="1">
-        <v>669</v>
-      </c>
-      <c r="N223" s="1">
         <v>0.31230000000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>327</v>
       </c>
@@ -11272,13 +10602,10 @@
         <v>174</v>
       </c>
       <c r="M224" s="1">
-        <v>121</v>
-      </c>
-      <c r="N224" s="1">
         <v>0.39729999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>328</v>
       </c>
@@ -11316,13 +10643,10 @@
         <v>815</v>
       </c>
       <c r="M225" s="1">
-        <v>437</v>
-      </c>
-      <c r="N225" s="1">
         <v>0.61099999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>329</v>
       </c>
@@ -11360,13 +10684,10 @@
         <v>805</v>
       </c>
       <c r="M226" s="1">
-        <v>663</v>
-      </c>
-      <c r="N226" s="1">
         <v>0.2329</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>330</v>
       </c>
@@ -11404,13 +10725,10 @@
         <v>629</v>
       </c>
       <c r="M227" s="1">
-        <v>337</v>
-      </c>
-      <c r="N227" s="1">
         <v>0.50680000000000003</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>331</v>
       </c>
@@ -11448,13 +10766,10 @@
         <v>813</v>
       </c>
       <c r="M228" s="1">
-        <v>447</v>
-      </c>
-      <c r="N228" s="1">
         <v>0.61639999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>332</v>
       </c>
@@ -11492,13 +10807,10 @@
         <v>650</v>
       </c>
       <c r="M229" s="1">
-        <v>610</v>
-      </c>
-      <c r="N229" s="1">
         <v>0.1014</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>333</v>
       </c>
@@ -11536,13 +10848,10 @@
         <v>534</v>
       </c>
       <c r="M230" s="1">
-        <v>302</v>
-      </c>
-      <c r="N230" s="1">
         <v>0.31509999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>334</v>
       </c>
@@ -11580,13 +10889,10 @@
         <v>450</v>
       </c>
       <c r="M231" s="1">
-        <v>213</v>
-      </c>
-      <c r="N231" s="1">
         <v>0.65210000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>335</v>
       </c>
@@ -11624,13 +10930,10 @@
         <v>546</v>
       </c>
       <c r="M232" s="1">
-        <v>364</v>
-      </c>
-      <c r="N232" s="1">
         <v>0.51229999999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>336</v>
       </c>
@@ -11668,13 +10971,10 @@
         <v>528</v>
       </c>
       <c r="M233" s="1">
-        <v>251</v>
-      </c>
-      <c r="N233" s="1">
         <v>0.62739999999999996</v>
       </c>
     </row>
-    <row r="234" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>337</v>
       </c>
@@ -11712,13 +11012,10 @@
         <v>471</v>
       </c>
       <c r="M234" s="1">
-        <v>343</v>
-      </c>
-      <c r="N234" s="1">
         <v>0.39729999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>338</v>
       </c>
@@ -11756,13 +11053,10 @@
         <v>174</v>
       </c>
       <c r="M235" s="1">
-        <v>125</v>
-      </c>
-      <c r="N235" s="1">
         <v>0.37530000000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>339</v>
       </c>
@@ -11800,13 +11094,10 @@
         <v>485</v>
       </c>
       <c r="M236" s="1">
-        <v>251</v>
-      </c>
-      <c r="N236" s="1">
         <v>0.3342</v>
       </c>
     </row>
-    <row r="237" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>340</v>
       </c>
@@ -11844,13 +11135,10 @@
         <v>547</v>
       </c>
       <c r="M237" s="1">
-        <v>404</v>
-      </c>
-      <c r="N237" s="1">
         <v>0.36159999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>341</v>
       </c>
@@ -11888,13 +11176,10 @@
         <v>432</v>
       </c>
       <c r="M238" s="1">
-        <v>161</v>
-      </c>
-      <c r="N238" s="1">
         <v>0.26579999999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>342</v>
       </c>
@@ -11932,13 +11217,10 @@
         <v>565</v>
       </c>
       <c r="M239" s="1">
-        <v>408</v>
-      </c>
-      <c r="N239" s="1">
         <v>0.38629999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>343</v>
       </c>
@@ -11976,13 +11258,10 @@
         <v>494</v>
       </c>
       <c r="M240" s="1">
-        <v>284</v>
-      </c>
-      <c r="N240" s="1">
         <v>0.31509999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>344</v>
       </c>
@@ -12020,13 +11299,10 @@
         <v>903</v>
       </c>
       <c r="M241" s="1">
-        <v>443</v>
-      </c>
-      <c r="N241" s="1">
         <v>0.55620000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>345</v>
       </c>
@@ -12064,13 +11340,10 @@
         <v>916</v>
       </c>
       <c r="M242" s="1">
-        <v>718</v>
-      </c>
-      <c r="N242" s="1">
         <v>0.44929999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>346</v>
       </c>
@@ -12108,13 +11381,10 @@
         <v>644</v>
       </c>
       <c r="M243" s="1">
-        <v>478</v>
-      </c>
-      <c r="N243" s="1">
         <v>0.31780000000000003</v>
       </c>
     </row>
-    <row r="244" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>347</v>
       </c>
@@ -12152,13 +11422,10 @@
         <v>829</v>
       </c>
       <c r="M244" s="1">
-        <v>533</v>
-      </c>
-      <c r="N244" s="1">
         <v>0.51229999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>348</v>
       </c>
@@ -12196,13 +11463,10 @@
         <v>872</v>
       </c>
       <c r="M245" s="1">
-        <v>566</v>
-      </c>
-      <c r="N245" s="1">
         <v>0.36990000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -12212,7 +11476,7 @@
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
     </row>
-    <row r="247" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -12222,7 +11486,7 @@
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
     </row>
-    <row r="248" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -12232,7 +11496,7 @@
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
     </row>
-    <row r="249" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -12242,7 +11506,7 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -12252,7 +11516,7 @@
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
     </row>
-    <row r="251" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -12262,7 +11526,7 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
     </row>
-    <row r="252" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -12272,7 +11536,7 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
     </row>
-    <row r="253" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -12282,7 +11546,7 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
     </row>
-    <row r="254" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -12292,7 +11556,7 @@
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
     </row>
-    <row r="255" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -12302,7 +11566,7 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
     </row>
-    <row r="256" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>

--- a/2.2.wsInfoFromDatabase.xlsx
+++ b/2.2.wsInfoFromDatabase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="1300" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
